--- a/icp/wordpress.xlsx
+++ b/icp/wordpress.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
   <si>
     <t xml:space="preserve">  此填写模板不允许改动格式或追加列，列宽和行高可以根据填写内容多少适当拖拽放大。
 信息填报说明：
@@ -136,64 +136,91 @@
     <t>高危漏洞</t>
   </si>
   <si>
-    <t>transifii.com</t>
-  </si>
-  <si>
-    <t>https://transifii.com</t>
+    <t>1.15.63.222</t>
+  </si>
+  <si>
+    <t>cpcontacts.omaths.com</t>
+  </si>
+  <si>
+    <t>http://cpcontacts.omaths.com</t>
   </si>
   <si>
     <t>绕过管理员权限查看wordpress上所有发布过文章的用户信息列表。</t>
   </si>
   <si>
-    <t>www.shscjdyxgs.com</t>
-  </si>
-  <si>
-    <t>https://www.shscjdyxgs.com</t>
-  </si>
-  <si>
-    <t>www.opodata.cn</t>
-  </si>
-  <si>
-    <t>https://www.opodata.cn</t>
-  </si>
-  <si>
-    <t>heipiao.cn</t>
-  </si>
-  <si>
-    <t>https://heipiao.cn</t>
-  </si>
-  <si>
-    <t>www.fawdlstty.com</t>
-  </si>
-  <si>
-    <t>https://www.fawdlstty.com</t>
-  </si>
-  <si>
-    <t>www.hackerfun.cn</t>
-  </si>
-  <si>
-    <t>http://www.hackerfun.cn</t>
-  </si>
-  <si>
-    <t>hackerfun.cn</t>
-  </si>
-  <si>
-    <t>http://hackerfun.cn</t>
-  </si>
-  <si>
-    <t>www.ec-eims.com</t>
-  </si>
-  <si>
-    <t>http://www.ec-eims.com</t>
-  </si>
-  <si>
-    <t>www.55card.cn</t>
-  </si>
-  <si>
-    <t>https://www.55card.cn</t>
-  </si>
-  <si>
-    <t>https://www.ec-eims.com</t>
+    <t>101.43.182.15</t>
+  </si>
+  <si>
+    <t>cpcontacts.mrppj.com</t>
+  </si>
+  <si>
+    <t>https://cpcontacts.mrppj.com</t>
+  </si>
+  <si>
+    <t>39.99.232.103</t>
+  </si>
+  <si>
+    <t>cpcontacts.x7up.com</t>
+  </si>
+  <si>
+    <t>https://cpcontacts.x7up.com</t>
+  </si>
+  <si>
+    <t>114.132.197.247</t>
+  </si>
+  <si>
+    <t>smtp.hengzw.com</t>
+  </si>
+  <si>
+    <t>http://smtp.hengzw.com</t>
+  </si>
+  <si>
+    <t>39.101.131.46</t>
+  </si>
+  <si>
+    <t>cpcontacts.skyriverad.com</t>
+  </si>
+  <si>
+    <t>https://cpcontacts.skyriverad.com</t>
+  </si>
+  <si>
+    <t>autodiscover.hengzw.com</t>
+  </si>
+  <si>
+    <t>http://autodiscover.hengzw.com</t>
+  </si>
+  <si>
+    <t>81.68.193.152</t>
+  </si>
+  <si>
+    <t>smtp.songlibattery.com</t>
+  </si>
+  <si>
+    <t>https://smtp.songlibattery.com</t>
+  </si>
+  <si>
+    <t>autodiscover.omaths.com</t>
+  </si>
+  <si>
+    <t>http://autodiscover.omaths.com</t>
+  </si>
+  <si>
+    <t>1.117.62.9</t>
+  </si>
+  <si>
+    <t>webdisk.weimx.com</t>
+  </si>
+  <si>
+    <t>https://webdisk.weimx.com</t>
+  </si>
+  <si>
+    <t>8.142.129.252</t>
+  </si>
+  <si>
+    <t>cpcalendars.zhmsnew.com</t>
+  </si>
+  <si>
+    <t>http://cpcalendars.zhmsnew.com</t>
   </si>
   <si>
     <t>标签来源</t>
@@ -254,7 +281,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,13 +316,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF233B46"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -799,49 +819,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -855,6 +875,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -883,9 +906,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -893,7 +913,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1309,348 +1329,428 @@
   </sheetPr>
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="A502" sqref="A13:A502"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.87272727272727" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.6272727272727" style="5" customWidth="1"/>
-    <col min="3" max="3" width="47.2545454545455" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.6272727272727" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.8727272727273" style="4" customWidth="1"/>
-    <col min="6" max="7" width="25.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="37.8727272727273" style="4" customWidth="1"/>
-    <col min="9" max="10" width="22.2545454545455" style="4" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="25" style="6" customWidth="1"/>
-    <col min="13" max="13" width="22.1272727272727" style="6" customWidth="1"/>
-    <col min="14" max="14" width="12.6272727272727" style="7" customWidth="1"/>
-    <col min="15" max="15" width="23.6272727272727" style="6" customWidth="1"/>
-    <col min="16" max="16" width="19" style="6" customWidth="1"/>
-    <col min="17" max="18" width="21.2545454545455" style="6" customWidth="1"/>
-    <col min="19" max="19" width="24.5" style="6" customWidth="1"/>
-    <col min="20" max="21" width="29.5" style="6" customWidth="1"/>
-    <col min="22" max="22" width="29.2545454545455" style="8" customWidth="1"/>
-    <col min="23" max="23" width="16.7545454545455" style="8" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.87272727272727" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.6272727272727" style="6" customWidth="1"/>
+    <col min="3" max="3" width="47.2545454545455" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27.6272727272727" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24.8727272727273" style="5" customWidth="1"/>
+    <col min="6" max="7" width="25.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="37.8727272727273" style="5" customWidth="1"/>
+    <col min="9" max="10" width="22.2545454545455" style="5" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="25" style="7" customWidth="1"/>
+    <col min="13" max="13" width="22.1272727272727" style="7" customWidth="1"/>
+    <col min="14" max="14" width="12.6272727272727" style="8" customWidth="1"/>
+    <col min="15" max="15" width="23.6272727272727" style="7" customWidth="1"/>
+    <col min="16" max="16" width="19" style="7" customWidth="1"/>
+    <col min="17" max="18" width="21.2545454545455" style="7" customWidth="1"/>
+    <col min="19" max="19" width="24.5" style="7" customWidth="1"/>
+    <col min="20" max="21" width="29.5" style="7" customWidth="1"/>
+    <col min="22" max="22" width="29.2545454545455" style="9" customWidth="1"/>
+    <col min="23" max="23" width="16.7545454545455" style="9" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:23">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="15"/>
     </row>
     <row r="2" s="3" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="10"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:13">
+      <c r="W2" s="11"/>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="14" spans="1:13">
       <c r="A3" s="4">
-        <v>6001</v>
-      </c>
-      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
         <v>45483</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="J3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:13">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="14" spans="1:13">
       <c r="A4" s="4">
-        <v>6002</v>
-      </c>
-      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
         <v>45483</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:13">
+    </row>
+    <row r="5" s="4" customFormat="1" ht="14" spans="1:13">
       <c r="A5" s="4">
-        <v>6003</v>
-      </c>
-      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
         <v>45483</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:13">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="14" spans="1:13">
       <c r="A6" s="4">
-        <v>6004</v>
-      </c>
-      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
         <v>45483</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:13">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="14" spans="1:13">
       <c r="A7" s="4">
-        <v>6005</v>
-      </c>
-      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
         <v>45483</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="13" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="14" spans="1:13">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45483</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:13">
-      <c r="A8" s="4">
-        <v>6006</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="J8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="14" spans="1:13">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
         <v>45483</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:13">
-      <c r="A9" s="4">
-        <v>6007</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="14" spans="1:13">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
         <v>45483</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:13">
-      <c r="A10" s="4">
-        <v>6008</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="14" spans="1:13">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
         <v>45483</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:13">
-      <c r="A11" s="4">
-        <v>6009</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" s="4" customFormat="1" ht="14" spans="1:13">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
         <v>45483</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:13">
-      <c r="A12" s="4">
-        <v>6010</v>
-      </c>
-      <c r="B12" s="5">
-        <v>45483</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>31</v>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1661,13 +1761,13 @@
     <mergeCell ref="T1:U1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="B1:B2 B3:B12 B13:B1048576 P1:P2 P3:P12 P13:P1048576 S1:S2 S3:S12 S13:S1048576">
+    <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="B1:B2 B13:B1048576 P1:P2 P13:P1048576 S1:S2 S13:S1048576">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N1:N2 N3:N12 N13:N1048576 T1:T2 T3:T12 T13:T1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N1:N2 N13:N1048576 T1:T2 T13:T1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="V3:V12 V13:V1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="V13:V1048576">
       <formula1>"电信,广电,经营性公众互联网,铁路,银行,海关, 税务,民航,电力,证券,保险,国防科技工业,公安,人事劳动和社会保障,财政,审计,商业贸易,国土资源,能源,交通,统计,工商行政管理,邮政,教育,文化,卫生,农业,水利,外交,发展改革,科技,宣传,质量监督检验检疫,安全生产,法院,供水,环保,检察,民政,气象,司法,烟草,政务,住建,其他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1694,72 +1794,72 @@
   <sheetData>
     <row r="1" ht="17.5" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="17.5" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:1">
@@ -1769,12 +1869,12 @@
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
